--- a/www.eia.gov/petroleum/production/xls/table3.xlsx
+++ b/www.eia.gov/petroleum/production/xls/table3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eianas02\OEA\MLW\Documents\EIA-914 Survey Expansion\Webpage Docs\December 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eianas01\OES\mcr\Documents\914\2017.01_Final Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -832,7 +832,7 @@
   <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -983,7 +983,9 @@
       <c r="K6" s="13">
         <v>8772</v>
       </c>
-      <c r="L6" s="13"/>
+      <c r="L6" s="13">
+        <v>9799</v>
+      </c>
       <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1015,12 +1017,14 @@
         <v>2168</v>
       </c>
       <c r="J7" s="16">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="K7" s="16">
-        <v>2125</v>
-      </c>
-      <c r="L7" s="16"/>
+        <v>2126</v>
+      </c>
+      <c r="L7" s="16">
+        <v>2109</v>
+      </c>
       <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1055,9 +1059,11 @@
         <v>572</v>
       </c>
       <c r="K8" s="16">
-        <v>567</v>
-      </c>
-      <c r="L8" s="16"/>
+        <v>568</v>
+      </c>
+      <c r="L8" s="16">
+        <v>565</v>
+      </c>
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1089,12 +1095,14 @@
         <v>4710</v>
       </c>
       <c r="J9" s="16">
-        <v>4671</v>
+        <v>4673</v>
       </c>
       <c r="K9" s="16">
-        <v>4698</v>
-      </c>
-      <c r="L9" s="16"/>
+        <v>4706</v>
+      </c>
+      <c r="L9" s="16">
+        <v>4726</v>
+      </c>
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1131,7 +1139,9 @@
       <c r="K10" s="16">
         <v>652</v>
       </c>
-      <c r="L10" s="16"/>
+      <c r="L10" s="16">
+        <v>651</v>
+      </c>
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1163,12 +1173,14 @@
         <v>5154</v>
       </c>
       <c r="J11" s="16">
-        <v>5094</v>
+        <v>5077</v>
       </c>
       <c r="K11" s="16">
-        <v>5002</v>
-      </c>
-      <c r="L11" s="16"/>
+        <v>4997</v>
+      </c>
+      <c r="L11" s="16">
+        <v>5082</v>
+      </c>
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1200,12 +1212,14 @@
         <v>134</v>
       </c>
       <c r="J12" s="16">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K12" s="16">
         <v>136</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="16">
+        <v>139</v>
+      </c>
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1237,12 +1251,14 @@
         <v>3593</v>
       </c>
       <c r="J13" s="16">
-        <v>3591</v>
+        <v>3587</v>
       </c>
       <c r="K13" s="16">
-        <v>3544</v>
-      </c>
-      <c r="L13" s="16"/>
+        <v>3541</v>
+      </c>
+      <c r="L13" s="16">
+        <v>3640</v>
+      </c>
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1274,12 +1290,14 @@
         <v>1651</v>
       </c>
       <c r="J14" s="15">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="K14" s="15">
-        <v>1717</v>
-      </c>
-      <c r="L14" s="16"/>
+        <v>1716</v>
+      </c>
+      <c r="L14" s="16">
+        <v>1767</v>
+      </c>
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1314,9 +1332,11 @@
         <v>4380</v>
       </c>
       <c r="K15" s="16">
-        <v>4093</v>
-      </c>
-      <c r="L15" s="16"/>
+        <v>4094</v>
+      </c>
+      <c r="L15" s="16">
+        <v>4149</v>
+      </c>
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1348,12 +1368,14 @@
         <v>6813</v>
       </c>
       <c r="J16" s="16">
-        <v>6766</v>
+        <v>6740</v>
       </c>
       <c r="K16" s="16">
-        <v>6734</v>
-      </c>
-      <c r="L16" s="16"/>
+        <v>6679</v>
+      </c>
+      <c r="L16" s="16">
+        <v>6580</v>
+      </c>
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1388,9 +1410,11 @@
         <v>13968</v>
       </c>
       <c r="K17" s="16">
-        <v>13606</v>
-      </c>
-      <c r="L17" s="16"/>
+        <v>13605</v>
+      </c>
+      <c r="L17" s="16">
+        <v>14560</v>
+      </c>
       <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1422,12 +1446,14 @@
         <v>22078</v>
       </c>
       <c r="J18" s="16">
-        <v>21756</v>
+        <v>21755</v>
       </c>
       <c r="K18" s="16">
-        <v>21535</v>
-      </c>
-      <c r="L18" s="16"/>
+        <v>21512</v>
+      </c>
+      <c r="L18" s="16">
+        <v>21248</v>
+      </c>
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1464,7 +1490,9 @@
       <c r="K19" s="16">
         <v>944</v>
       </c>
-      <c r="L19" s="16"/>
+      <c r="L19" s="16">
+        <v>925</v>
+      </c>
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1496,12 +1524,14 @@
         <v>3845</v>
       </c>
       <c r="J20" s="16">
-        <v>3826</v>
+        <v>3831</v>
       </c>
       <c r="K20" s="16">
-        <v>3808</v>
-      </c>
-      <c r="L20" s="16"/>
+        <v>3811</v>
+      </c>
+      <c r="L20" s="16">
+        <v>3869</v>
+      </c>
       <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1533,12 +1563,14 @@
         <v>4508</v>
       </c>
       <c r="J21" s="16">
-        <v>4857</v>
+        <v>4847</v>
       </c>
       <c r="K21" s="16">
-        <v>4924</v>
-      </c>
-      <c r="L21" s="16"/>
+        <v>4921</v>
+      </c>
+      <c r="L21" s="16">
+        <v>4806</v>
+      </c>
       <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1575,7 +1607,9 @@
       <c r="K22" s="16">
         <v>1503</v>
       </c>
-      <c r="L22" s="16"/>
+      <c r="L22" s="16">
+        <v>1499</v>
+      </c>
       <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1607,12 +1641,14 @@
         <v>3408</v>
       </c>
       <c r="J23" s="19">
-        <v>3211</v>
+        <v>3230</v>
       </c>
       <c r="K23" s="19">
-        <v>3272</v>
-      </c>
-      <c r="L23" s="19"/>
+        <v>3340</v>
+      </c>
+      <c r="L23" s="19">
+        <v>3395</v>
+      </c>
       <c r="M23" s="19"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1644,12 +1680,14 @@
         <v>88453</v>
       </c>
       <c r="J24" s="34">
-        <v>88028</v>
+        <v>87997</v>
       </c>
       <c r="K24" s="34">
-        <v>87633</v>
-      </c>
-      <c r="L24" s="34"/>
+        <v>87623</v>
+      </c>
+      <c r="L24" s="34">
+        <v>89508</v>
+      </c>
       <c r="M24" s="34"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
